--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsExcTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsExcTestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="1200" yWindow="4800" windowWidth="14400" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -331,23 +331,11 @@
     <t>18301779_3</t>
   </si>
   <si>
-    <t>noree99778889</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19900001003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100992983838</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18663049557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19900002001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -580,6 +568,18 @@
   </si>
   <si>
     <t>1312222220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${QQUtils.genUnRegisterQQ()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1212,22 +1212,22 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -1236,163 +1236,163 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
         <v>85</v>
       </c>
-      <c r="L2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="Q2" t="s">
         <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
       </c>
       <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
-      </c>
-      <c r="X2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>97</v>
       </c>
       <c r="AA2" t="s">
         <v>31</v>
       </c>
       <c r="AB2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AR2" t="s">
         <v>107</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>110</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AT2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>111</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="BA2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB2" t="s">
         <v>112</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BD2" t="s">
         <v>117</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BB2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsExcTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/BorrowsExcTestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="4800" windowWidth="14400" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37028219921030111X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,15 +567,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${QQUtils.genUnRegisterQQ()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(19)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1212,19 +1212,19 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>81</v>
@@ -1275,124 +1275,124 @@
         <v>91</v>
       </c>
       <c r="X2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>93</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>94</v>
       </c>
       <c r="AA2" t="s">
         <v>31</v>
       </c>
       <c r="AB2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" t="s">
         <v>106</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>107</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" t="s">
         <v>108</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX2" t="s">
         <v>109</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>111</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BB2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" t="s">
         <v>116</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="BK2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
